--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
   </si>
   <si>
     <t xml:space="preserve">id_connection</t>
@@ -531,12 +534,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="A1:A15 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,7 +837,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A1:A15 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,7 +930,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:A15 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1053,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:A15 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,7 +1380,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:A15 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,12 +1410,12 @@
       <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="n">
-        <v>0</v>
+      <c r="C2" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("('",A2,"'",",","'",B2,"'",",","'",C2,"')")</f>
-        <v>('1','gratuito','0')</v>
+        <v>('1','gratuito','0,00')</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1474,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A1:A15 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1599,7 +1603,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:A15 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,13 +1616,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>40</v>
@@ -1774,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1787,13 +1791,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>40</v>
@@ -1810,8 +1814,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A2,"'",",","'",B2,"'",",","'",C2,"')")</f>
-        <v>('1','1','1')</v>
+        <f aca="false">CONCATENATE("('",A2,"'",",","'",B2,"'",",","'",C2,"'),")</f>
+        <v>('1','1','1'),</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,8 +1829,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A3,"'",",","'",B3,"'",",","'",C3,"')")</f>
-        <v>('2','1','6')</v>
+        <f aca="false">CONCATENATE("('",A3,"'",",","'",B3,"'",",","'",C3,"'),")</f>
+        <v>('2','1','6'),</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,8 +1844,8 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A4,"'",",","'",B4,"'",",","'",C4,"')")</f>
-        <v>('3','1','14')</v>
+        <f aca="false">CONCATENATE("('",A4,"'",",","'",B4,"'",",","'",C4,"'),")</f>
+        <v>('3','1','14'),</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,8 +1859,8 @@
         <v>16</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A5,"'",",","'",B5,"'",",","'",C5,"')")</f>
-        <v>('4','1','16')</v>
+        <f aca="false">CONCATENATE("('",A5,"'",",","'",B5,"'",",","'",C5,"'),")</f>
+        <v>('4','1','16'),</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,8 +1874,8 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A6,"'",",","'",B6,"'",",","'",C6,"')")</f>
-        <v>('5','2','13')</v>
+        <f aca="false">CONCATENATE("('",A6,"'",",","'",B6,"'",",","'",C6,"'),")</f>
+        <v>('5','2','13'),</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,8 +1889,8 @@
         <v>17</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A7,"'",",","'",B7,"'",",","'",C7,"')")</f>
-        <v>('6','2','17')</v>
+        <f aca="false">CONCATENATE("('",A7,"'",",","'",B7,"'",",","'",C7,"'),")</f>
+        <v>('6','2','17'),</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,8 +1904,8 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A8,"'",",","'",B8,"'",",","'",C8,"')")</f>
-        <v>('7','2','2')</v>
+        <f aca="false">CONCATENATE("('",A8,"'",",","'",B8,"'",",","'",C8,"'),")</f>
+        <v>('7','2','2'),</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,8 +1919,8 @@
         <v>15</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A9,"'",",","'",B9,"'",",","'",C9,"')")</f>
-        <v>('8','2','15')</v>
+        <f aca="false">CONCATENATE("('",A9,"'",",","'",B9,"'",",","'",C9,"'),")</f>
+        <v>('8','2','15'),</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,8 +1934,8 @@
         <v>4</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A10,"'",",","'",B10,"'",",","'",C10,"')")</f>
-        <v>('9','3','4')</v>
+        <f aca="false">CONCATENATE("('",A10,"'",",","'",B10,"'",",","'",C10,"'),")</f>
+        <v>('9','3','4'),</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,8 +1949,8 @@
         <v>16</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A11,"'",",","'",B11,"'",",","'",C11,"')")</f>
-        <v>('10','3','16')</v>
+        <f aca="false">CONCATENATE("('",A11,"'",",","'",B11,"'",",","'",C11,"'),")</f>
+        <v>('10','3','16'),</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,8 +1964,8 @@
         <v>6</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A12,"'",",","'",B12,"'",",","'",C12,"')")</f>
-        <v>('11','3','6')</v>
+        <f aca="false">CONCATENATE("('",A12,"'",",","'",B12,"'",",","'",C12,"'),")</f>
+        <v>('11','3','6'),</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,8 +1979,8 @@
         <v>3</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A13,"'",",","'",B13,"'",",","'",C13,"')")</f>
-        <v>('12','4','3')</v>
+        <f aca="false">CONCATENATE("('",A13,"'",",","'",B13,"'",",","'",C13,"'),")</f>
+        <v>('12','4','3'),</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,8 +1994,8 @@
         <v>18</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A14,"'",",","'",B14,"'",",","'",C14,"')")</f>
-        <v>('13','4','18')</v>
+        <f aca="false">CONCATENATE("('",A14,"'",",","'",B14,"'",",","'",C14,"'),")</f>
+        <v>('13','4','18'),</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,8 +2009,8 @@
         <v>11</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">CONCATENATE("('",A15,"'",",","'",B15,"'",",","'",C15,"')")</f>
-        <v>('14','4','11')</v>
+        <f aca="false">CONCATENATE("('",A15,"'",",","'",B15,"'",",","'",C15,"'),")</f>
+        <v>('14','4','11'),</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
